--- a/biology/Médecine/Œuvre_scientifique_de_Philipp_Schwartz/Œuvre_scientifique_de_Philipp_Schwartz.xlsx
+++ b/biology/Médecine/Œuvre_scientifique_de_Philipp_Schwartz/Œuvre_scientifique_de_Philipp_Schwartz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En tant que scientifique, le professeur de pathologie Philipp Schwartz (1894-1977) a consacré la majeure partie de sa carrière à l'étude du traumatisme cérébral d'origine obstétrical.
 Il a également publié sur la neuropathologie, la tuberculose et la gériatrie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sur le traumatisme cérébral d'origine obstétrical
-Années 20-30
-1921 : (de) Philipp Schwartz, « Die Ansaugungsblutungen im Gehirn Neugeborener », Zeitschrift für Kinderheilkunde,‎ avril 1921 (DOI 10.1007/BF02222369)
+          <t>Sur le traumatisme cérébral d'origine obstétrical</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Années 20-30</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1921 : (de) Philipp Schwartz, « Die Ansaugungsblutungen im Gehirn Neugeborener », Zeitschrift für Kinderheilkunde,‎ avril 1921 (DOI 10.1007/BF02222369)
 1921 : (de) Philipp Schwartz, « Die traumatische Gehirnerweichung des Neugeborenen. », Zeitschrift für Kinderheilkunde, vol. 31,‎ 1921, p. 51-79 (DOI 10.1007/BF02222762)
 1921 : (de) Philipp Schwartz, « Die geburtsschädigungen des gehirns und die Virchowsche Encephalitis interstitialis congenita. », Centralblat.allg.path.u.path.anat,‎ 1921, p. 32-57
 1922 : (de) Philipp Schwartz, « Die traumatische geburtsschädigung des gehirns. », München.Med.Wschr, vol. 69,‎ 1922, p. 1110
@@ -530,9 +550,47 @@
 1926 : (de) Philipp Schwartz, « Die geburtstraumatische Schädiging des Kopfes Neugeborener und ihre Bedeutung für die Pathologie », Monatsschrift Kinderheilkunde,‎ 1926, p. 34:511
 1927 : (de) Philipp Schwartz, « Die traumatischen Schädigungen des Zentralnervensystems durch die Geburt. Anatomische Untersuchungen », dans F. Kraus, O. Minkowski, Fr. Müller, H. Sahli, A. Czerny, O. Heubner, L. Langstein, Erich Meyer, A. Schittenhelm, Ergebnisse der Inneren Medizin und Kinderheilkunde, Springer-Verlag, 1927 (ISBN 978-3-662-33020-3 et 978-3-662-32193-5, DOI 10.1007/978-3-662-33020-3_4)
 1928 : (de) Philipp Schwartz, « Geburtshilfe und Hirnschädigungen durch die geburt. », Zentralblatt für Gynäkologie, vol. 52,‎ 1928, p. 2116
-1930 : (de) Philip Schwartz, « Hirnbefunde bei Neugeborenen », Deutsche Zeitschrift für die gesamte gerichtliche Medizin, vol. 15,‎ 1930, p. 58-74 (DOI 10.1007/BF01751317)
-Années 50-60
-1949 : (en) Philipp Schwartz, « Sub-ependymal cysts of the caudate nucleus ; a typical birth injury », Harefuah, vol. 37,‎ 1949, p. 168-170 (PMID 15404200)
+1930 : (de) Philip Schwartz, « Hirnbefunde bei Neugeborenen », Deutsche Zeitschrift für die gesamte gerichtliche Medizin, vol. 15,‎ 1930, p. 58-74 (DOI 10.1007/BF01751317)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sur le traumatisme cérébral d'origine obstétrical</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Années 50-60</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1949 : (en) Philipp Schwartz, « Sub-ependymal cysts of the caudate nucleus ; a typical birth injury », Harefuah, vol. 37,‎ 1949, p. 168-170 (PMID 15404200)
 1956 : (en) Philipp Schwartz, « Birth injuries of the newborn. Morphology, pathogenesis, clinical pathology and prevention of birth injuries of the newborn », Archives of Pediatrics, vol. 73, no 12,‎ 1956, p. 429-450 (PMID 13395679)
 1958 : (en) Philipp Schwartz, « Birth injury as a cause of "status marmoratus" », Archives of Pediatrics, vol. 75, no 2,‎ 1958, p. 45-66 (PMID 13509847)
 1958 : (en) Philipp Schwartz, « Virchow's congenital encephalomyelitis of the newborn. A basic but neglected problem. », Archives of Pediatrics, vol. 75, no 5,‎ 1958, p. 175-202 (PMID 13534963)
@@ -541,34 +599,310 @@
 1961 : Philipp Schwartz, « Les traumatismes cérébro-spinaux de la naissance. 1-Types, causes, pathogénie et conséquences », La Presse Médicale, vol. 69,‎ 22 février 1961, p. 394-397 (PMID 13749120)
 1961 : Philipp Schwartz, « Les traumatismes cérébro-spinaux de la naissance. 2-Développement des lésions cérébro-spinales obstétricales. Prévention et correction des traumatismes obstétricaux. », La Presse Médicale, vol. 69,‎ 11 mars 1961, p. 529-532 (PMID 13749121)
 1964 : (de) Philip Schwartz, Geburtsschäden bei Neugeborenen : Bericht über morphologische, pathogenetische und klinische Untersuchungen bei Geburtsschäden mit Vorschlägen zu ihrer Verhütung, Gustav Fischer, 1964 (OCLC 63878541, lire en ligne)
-1965 : (en) Philipp Schwartz, « Cerebral birth injury in the United States », Proceedings of the Rudolf Virchow Medical Society in the City of New York,‎ 1965, p. 60-85 (PMID 5260824)
-Années 70
-1972 : (en) J.Minkler, Philipp Schwartz et G-W. Anderson, Pathology of the Nervous System, New-York, McGraw-Hill, 1972 (OCLC 174528402), « Birth lesions of the nervous system. », p. 2926-2940
+1965 : (en) Philipp Schwartz, « Cerebral birth injury in the United States », Proceedings of the Rudolf Virchow Medical Society in the City of New York,‎ 1965, p. 60-85 (PMID 5260824)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sur le traumatisme cérébral d'origine obstétrical</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Années 70</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1972 : (en) J.Minkler, Philipp Schwartz et G-W. Anderson, Pathology of the Nervous System, New-York, McGraw-Hill, 1972 (OCLC 174528402), « Birth lesions of the nervous system. », p. 2926-2940
 1973 : (de) Philipp Schwartz, « Alte und neue Beobachtungen zu perinatalen Läsionen bei Neugeborenen », Monatsschrift Kinderheilkunde,‎ 1973 (PMID 4751436)
 1975 : (de) Philipp Schwartz, « Atemnot durch traumatische Läsionen bei Neugeborenen und Erwachsenen », Fortschritte der Medizin,‎ 1975 (PMID 1240072)
-1976 : (de) Philipp Schwartz, « Akute und tödliche Atemnot aufgrund eines Traumas bei Neugeborenen und Erwachsenen », Monatsschrift für Kinderheilkunde,‎ 1976 (PMID 1264087)
-Sur l'ictère néonatal
-1924 : (de) Philip Schwartz, « Icterus neonatorum », Zeitschrift für klinische Medizin,‎ 1924, p. 100-117
-Sur le métabolisme du fer
-1924 : (de) Philipp Schwartz, R. Baer et J. Weiser, « Histologische Untersuchungen über den Eisenstoffwechsel im frühen Säuglingsalter », Zeitschrift für Kinderheilkunde, vol. 37,‎ 1924, p. 167-191 (DOI 10.1007/BF02225279)
-Sur la neuropathologie
-1925 : (de) Philipp Schwartz, « Zur Anatomischen Lokalisation und Ausdehnung von Erkrankungen des Grosshirns », Klinische Wochenschrift, vol. 4,‎ 1925, p. 349-353 (DOI 10.1007/BF01745257)
+1976 : (de) Philipp Schwartz, « Akute und tödliche Atemnot aufgrund eines Traumas bei Neugeborenen und Erwachsenen », Monatsschrift für Kinderheilkunde,‎ 1976 (PMID 1264087)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sur l'ictère néonatal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1924 : (de) Philip Schwartz, « Icterus neonatorum », Zeitschrift für klinische Medizin,‎ 1924, p. 100-117</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sur le métabolisme du fer</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1924 : (de) Philipp Schwartz, R. Baer et J. Weiser, « Histologische Untersuchungen über den Eisenstoffwechsel im frühen Säuglingsalter », Zeitschrift für Kinderheilkunde, vol. 37,‎ 1924, p. 167-191 (DOI 10.1007/BF02225279)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sur la neuropathologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1925 : (de) Philipp Schwartz, « Zur Anatomischen Lokalisation und Ausdehnung von Erkrankungen des Grosshirns », Klinische Wochenschrift, vol. 4,‎ 1925, p. 349-353 (DOI 10.1007/BF01745257)
 1927 : (de) Philipp Schwartz et H-R. Klauer, « Diffuse systematische, blastomatöse Wucherung des gliösen Apparates im Gehirn », Zeitschrift für die gesamte Neurologie und Psychiatrie volume, vol. 109,‎ 1927, p. 438-452 (DOI 10.1007/BF02870244)
 1930 : (de) Philipp Schwartz et H. Cohn, « Eigenschaften der Ausdehnung anatomischer Erkrankungen im Zentralnervensystem », Zeitschrift für die gesamte Neurologie und Psychiatrie volume, vol. 126,‎ 1930, p. 1-93 (DOI 10.1007/BF02864092)
-1932 : Philipp Schwartz, « Anatomische Typen der Hirngliome. », Nervenarzt, vol. 2,‎ 1932, p. 449
-Sur le pigment de formol
-1926 : (de) Philipp Schwartz et R. Bieling, « Über Formalinpigment. Experimentelle Untersuchungen. », Zeitschrift für die gesamte experimentelle Medizin, vol. 52,‎ 1926, p. 678-687 (DOI 10.1007/BF02625394)
-Sur la tuberculose
-1950 : (de) Schwartz Philipp, « Bronchialwandschädigungen durch tuberkulöse Lymphknoten und ihre Beziehungen zu primären Bronchialtumoren », Beiträge zur Klinik der Tuberkulose,‎ 1950 (DOI doi.org/10.1007/BF02298009)
-1950 : (de) Philipp Schwartz, « Einbrüche tuberkulöser Lymphknoten in das Bronchialsystem und ihre pathogenetische Bedeutung », Beiträge zur Klinik der Tuberkulose und spezifischen Tuberkulose-Forschung, vol. 103,‎ 1950, p. 182-191 (DOI 10.1007/BF02298008)
-Autres publications
-(en) Philip Schwartz, « Cellular pathologic definition of benign and malignant tumors », Proceedings of Rudolf Virchow Medical Society in the City of New York,‎ 1960, p. 440
+1932 : Philipp Schwartz, « Anatomische Typen der Hirngliome. », Nervenarzt, vol. 2,‎ 1932, p. 449</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sur le pigment de formol</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1926 : (de) Philipp Schwartz et R. Bieling, « Über Formalinpigment. Experimentelle Untersuchungen. », Zeitschrift für die gesamte experimentelle Medizin, vol. 52,‎ 1926, p. 678-687 (DOI 10.1007/BF02625394)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sur la tuberculose</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1950 : (de) Schwartz Philipp, « Bronchialwandschädigungen durch tuberkulöse Lymphknoten und ihre Beziehungen zu primären Bronchialtumoren », Beiträge zur Klinik der Tuberkulose,‎ 1950 (DOI doi.org/10.1007/BF02298009)
+1950 : (de) Philipp Schwartz, « Einbrüche tuberkulöser Lymphknoten in das Bronchialsystem und ihre pathogenetische Bedeutung », Beiträge zur Klinik der Tuberkulose und spezifischen Tuberkulose-Forschung, vol. 103,‎ 1950, p. 182-191 (DOI 10.1007/BF02298008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) Philip Schwartz, « Cellular pathologic definition of benign and malignant tumors », Proceedings of Rudolf Virchow Medical Society in the City of New York,‎ 1960, p. 440
 1972 : (de) Philipp Schwartz, Über die Notgemeinschaft deutscher Wissenschaftler im Ausland : vorgetragen am 2. internationalen Symposium zur Erforschung des deutschsprachigen Exils nach 1933, Kopenhagen, 17. August 1972, 1972 (OCLC 835826839, lire en ligne)
 1973 : (de) Philipp Schwartz, « Der junge Virchow und die Entwicklung der Zytologie », Fortschritte der Medizin,‎ 1973 (PMID 4578490)
 1973 : (de) Philipp Schwartz, « Der junge Virchow und die Entwicklung der Zelltheorie », Fortschritte der Medizin,‎ 15 mars 1973 (PMID 4573911)
-1977 : (de) Philipp Schwartz, « Wissen und Gewissen. Umriss einer Menschenlehre », Fortschritte der Medizin,‎ 5 mai 1977 (PMID 858590)
-Livres médicaux
-1930 : (de) Philipp Schwartz, Die Arten der Schlaganfälle des Gehirns und ihre Entstehung., Berlin, Springer, 1930 (OCLC 800478542, DOI 10.1007/978-3-642-90808-8)
+1977 : (de) Philipp Schwartz, « Wissen und Gewissen. Umriss einer Menschenlehre », Fortschritte der Medizin,‎ 5 mai 1977 (PMID 858590)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Livres médicaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1930 : (de) Philipp Schwartz, Die Arten der Schlaganfälle des Gehirns und ihre Entstehung., Berlin, Springer, 1930 (OCLC 800478542, DOI 10.1007/978-3-642-90808-8)
 1935 : (de) Philipp Schwartz, Empfindlichkeit und Schwindsucht, Leipzig, Barth., 1935 (OCLC 800478699)
 1939 : (tr) Philipp Schwartz, Pathologik anatomia ders notları, Istanbul, Rıza Koşkun Basımevi, 1939 (OCLC 1185392222)
 1940 : (tr) Philipp Schwartz et M. Erel, Insan akciger veremi bilgisine giriş, Istanbul, Kenan Basimevi ve Klişe Fabrikasi, 1940 (OCLC 1186513395)
@@ -592,39 +926,109 @@
 1961 : (en) Philipp Schwartz (préf. Sir Eardley Holland), Birth Injuries of the Newborn. Morphology, Pathogenesis, Clinical Pathology and Prevention, S.Karger-Basel, 1961 (ISBN 978-3-8055-1031-8, DOI 10.1159/isbn.978-3-318-04385-3)
 1961 : (en) Philipp Schwartz, Cerebral Apoplexy ; types, causes and pathogenesis., Springfield, Charles C.Thomas, 1961 (OCLC 901825005)
 1970 : (en) Philip Schwartz, Amyloidosis ; cause and manifestation of senile deterioration., Thomas, Springfield, 1970 (OCLC 63366)
-1973 : (de) Philipp Schwartz, Der junge Virchow und die Entwicklung der Lehre von den Zellen, Verlag, 1973 (OCLC 695341469)
-Autres ouvrages
-1972 : (de) Philipp Schwartz, [ein Bericht zur Verteilung an die Teilnehmer des zweiten Internationalen Symposiums zur Erforschung des deutschsprachigen Exils nach 1933, Kopenhagen, August 16-18, 1972], Kopenhagen, 16-18 aout 1972 (OCLC 256046093)
-A titre posthume
-1995 : (de) Philipp Schwartz et Helge Peukert, Notgemeinschaft : zur Emigration deutscher Wissenschaftler nach 1933 in die Türkei, Metropolis, 1995 (ISBN 978-3-89518-038-5, OCLC 34872573)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+1973 : (de) Philipp Schwartz, Der junge Virchow und die Entwicklung der Lehre von den Zellen, Verlag, 1973 (OCLC 695341469)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1972 : (de) Philipp Schwartz, [ein Bericht zur Verteilung an die Teilnehmer des zweiten Internationalen Symposiums zur Erforschung des deutschsprachigen Exils nach 1933, Kopenhagen, August 16-18, 1972], Kopenhagen, 16-18 aout 1972 (OCLC 256046093)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A titre posthume</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1995 : (de) Philipp Schwartz et Helge Peukert, Notgemeinschaft : zur Emigration deutscher Wissenschaftler nach 1933 in die Türkei, Metropolis, 1995 (ISBN 978-3-89518-038-5, OCLC 34872573)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Œuvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uvre_scientifique_de_Philipp_Schwartz</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp Schwartz
  Portail de la médecine                     </t>
